--- a/datas/SX5E_Calls_Dec22.xlsx
+++ b/datas/SX5E_Calls_Dec22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj200901\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tj200901\Desktop\Data PI2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8211ADA-16C6-40EE-B418-F6CF0B92F992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC7A662-DDDA-4B92-8FA0-F308F9C1405A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Strike</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Volm</t>
   </si>
   <si>
-    <t>16-Dec-22 (77d); CSize 10</t>
+    <t>16-Dec-22 (70d); CSize 10</t>
   </si>
   <si>
     <t>SX5E 12/16/22 C1700</t>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>SX5E 12/16/22 C4950</t>
+  </si>
+  <si>
+    <t>SX5E 12/16/22 C5000</t>
+  </si>
+  <si>
+    <t>SX5E 12/16/22 C5050</t>
   </si>
 </sst>
 </file>
@@ -902,49 +908,49 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="42" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="blp_column_header" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Calcul" xfId="27" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="36" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="35" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="37" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="28" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="29" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="31" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="32" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="34" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="35" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="38" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="30" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="39" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="29" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="40" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="31" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="32" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="33" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="34" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="39" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="40" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="28" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -960,7 +966,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1280,11 +1286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="17" bestFit="1" customWidth="1"/>
@@ -1379,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1498</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1506.59985351563</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1402,16 +1410,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1463.80004882813</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1474.69995117188</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>61.486263275146499</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1425,16 +1433,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>1404.19995117188</v>
+        <v>1473.09985351563</v>
       </c>
       <c r="D7">
-        <v>1425.30004882813</v>
+        <v>1482.30004882813</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.958652496337898</v>
+        <v>62.962497711181598</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1448,16 +1456,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>1364.69995117188</v>
+        <v>1423.59985351563</v>
       </c>
       <c r="D8">
-        <v>1375.89990234375</v>
+        <v>1432.80004882813</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>57.867916107177699</v>
+        <v>61.149368286132798</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1471,16 +1479,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>1314.80004882813</v>
+        <v>1371.89990234375</v>
       </c>
       <c r="D9">
-        <v>1326.59985351563</v>
+        <v>1383.30004882813</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>55.844940185546903</v>
+        <v>57.310432434082003</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1494,16 +1502,16 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>1265.5</v>
+        <v>1323.19995117188</v>
       </c>
       <c r="D10">
-        <v>1277.30004882813</v>
+        <v>1333.89990234375</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>54.250205993652301</v>
+        <v>56.397331237792997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1517,16 +1525,16 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>1216.39990234375</v>
+        <v>1273.69995117188</v>
       </c>
       <c r="D11">
-        <v>1228.09985351563</v>
+        <v>1284.19995117188</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>52.796192169189503</v>
+        <v>54.446891784667997</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1540,16 +1548,16 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>1191.80004882813</v>
+        <v>1247.80004882813</v>
       </c>
       <c r="D12">
-        <v>1203.5</v>
+        <v>1259.5</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.013328552246101</v>
+        <v>52.693157196044901</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1563,16 +1571,16 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>1167.30004882813</v>
+        <v>1223.5</v>
       </c>
       <c r="D13">
-        <v>1179</v>
+        <v>1235.19995117188</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.326316833496101</v>
+        <v>52.503494262695298</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1586,16 +1594,16 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>1118.39990234375</v>
+        <v>1174.30004882813</v>
       </c>
       <c r="D14">
-        <v>1129.89990234375</v>
+        <v>1186</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.892906188964801</v>
+        <v>51.099754333496101</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1609,16 +1617,16 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>1069.39990234375</v>
+        <v>1125.19995117188</v>
       </c>
       <c r="D15">
-        <v>1081</v>
+        <v>1136.89990234375</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.4321899414063</v>
+        <v>49.732658386230497</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1632,16 +1640,16 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>1045</v>
+        <v>1100.59985351563</v>
       </c>
       <c r="D16">
-        <v>1056.59985351563</v>
+        <v>1112.30004882813</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.742851257324197</v>
+        <v>48.962699890136697</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1655,16 +1663,16 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>1020.59985351563</v>
+        <v>1076.19995117188</v>
       </c>
       <c r="D17">
-        <v>1032.30004882813</v>
+        <v>1087.80004882813</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>47.070774078369098</v>
+        <v>48.334671020507798</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1678,16 +1686,16 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>996.2998046875</v>
+        <v>1051.69995117188</v>
       </c>
       <c r="D18">
-        <v>1007.89990234375</v>
+        <v>1063.30004882813</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.377151489257798</v>
+        <v>47.628067016601598</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1701,16 +1709,16 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>972</v>
+        <v>1026.80004882813</v>
       </c>
       <c r="D19">
-        <v>983.599853515625</v>
+        <v>1038.30004882813</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.6994018554688</v>
+        <v>46.457958221435497</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1724,16 +1732,16 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>947.7998046875</v>
+        <v>1002.89990234375</v>
       </c>
       <c r="D20">
-        <v>959.39990234375</v>
+        <v>1014.2998046875</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.069812774658203</v>
+        <v>46.243965148925803</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1747,16 +1755,16 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>923.599853515625</v>
+        <v>978.599853515625</v>
       </c>
       <c r="D21">
-        <v>935.199951171875</v>
+        <v>989.89990234375</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.414535522460902</v>
+        <v>45.608814239502003</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1770,16 +1778,16 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>899.5</v>
+        <v>954.2998046875</v>
       </c>
       <c r="D22">
-        <v>911.099853515625</v>
+        <v>965.599853515625</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>43.798728942871101</v>
+        <v>44.98486328125</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1793,16 +1801,16 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>879.800048828125</v>
+        <v>930</v>
       </c>
       <c r="D23">
-        <v>883</v>
+        <v>941.2998046875</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>43.275680541992202</v>
+        <v>44.330966949462898</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1816,16 +1824,16 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>855.900146484375</v>
+        <v>905.699951171875</v>
       </c>
       <c r="D24">
-        <v>859</v>
+        <v>917.099853515625</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.684600830078097</v>
+        <v>43.686843872070298</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1839,19 +1847,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>831.900146484375</v>
+        <v>881.5</v>
       </c>
       <c r="D25">
-        <v>835.10009765625</v>
+        <v>892.89990234375</v>
       </c>
       <c r="E25">
-        <v>818.5</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>42.0587158203125</v>
+        <v>43.050567626953097</v>
       </c>
       <c r="G25">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1862,16 +1870,16 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>808.10009765625</v>
+        <v>857.5</v>
       </c>
       <c r="D26">
-        <v>811.300048828125</v>
+        <v>868.699951171875</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>41.486019134521499</v>
+        <v>42.451747894287102</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1885,16 +1893,16 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>784.400146484375</v>
+        <v>833.39990234375</v>
       </c>
       <c r="D27">
-        <v>787.5</v>
+        <v>844.599853515625</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>40.902011871337898</v>
+        <v>41.818798065185497</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1908,16 +1916,16 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>760.699951171875</v>
+        <v>813.300048828125</v>
       </c>
       <c r="D28">
-        <v>763.900146484375</v>
+        <v>816.400146484375</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>40.3324584960938</v>
+        <v>41.125984191894503</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1931,16 +1939,16 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>737.199951171875</v>
+        <v>789.300048828125</v>
       </c>
       <c r="D29">
-        <v>740.300048828125</v>
+        <v>792.400146484375</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>39.767833709716797</v>
+        <v>40.491950988769503</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1954,16 +1962,16 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>713.699951171875</v>
+        <v>765.5</v>
       </c>
       <c r="D30">
-        <v>716.800048828125</v>
+        <v>768.60009765625</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>39.190605163574197</v>
+        <v>39.937717437744098</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1977,16 +1985,16 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>690.400146484375</v>
+        <v>741.699951171875</v>
       </c>
       <c r="D31">
-        <v>693.5</v>
+        <v>744.800048828125</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>38.657726287841797</v>
+        <v>39.3429565429688</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2000,16 +2008,16 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>667.199951171875</v>
+        <v>718</v>
       </c>
       <c r="D32">
-        <v>670.300048828125</v>
+        <v>721.10009765625</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>38.122127532958999</v>
+        <v>38.7588920593262</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2023,16 +2031,16 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>644.199951171875</v>
+        <v>694.5</v>
       </c>
       <c r="D33">
-        <v>647.199951171875</v>
+        <v>697.5</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>37.601974487304702</v>
+        <v>38.2098999023438</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2046,16 +2054,16 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>621.199951171875</v>
+        <v>671</v>
       </c>
       <c r="D34">
-        <v>624.300048828125</v>
+        <v>674</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>37.068264007568402</v>
+        <v>37.638542175292997</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2069,16 +2077,16 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>598.5</v>
+        <v>647.699951171875</v>
       </c>
       <c r="D35">
-        <v>601.5</v>
+        <v>650.699951171875</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>36.561592102050803</v>
+        <v>37.110042572021499</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2092,16 +2100,16 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>575.900146484375</v>
+        <v>624.5</v>
       </c>
       <c r="D36">
-        <v>578.900146484375</v>
+        <v>627.5</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>36.055404663085902</v>
+        <v>36.575496673583999</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2115,19 +2123,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>553.5</v>
+        <v>601.5</v>
       </c>
       <c r="D37">
-        <v>556.400146484375</v>
+        <v>604.400146484375</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>35.5450248718262</v>
+        <v>36.048904418945298</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2138,16 +2146,16 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>531.400146484375</v>
+        <v>578.60009765625</v>
       </c>
       <c r="D38">
-        <v>534.199951171875</v>
+        <v>581.5</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>35.077098846435497</v>
+        <v>35.5308647155762</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2161,16 +2169,16 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>509.39990234375</v>
+        <v>555.900146484375</v>
       </c>
       <c r="D39">
-        <v>512.199951171875</v>
+        <v>558.800048828125</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>34.595119476318402</v>
+        <v>35.030311584472699</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2184,16 +2192,16 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>487.699951171875</v>
+        <v>533.5</v>
       </c>
       <c r="D40">
-        <v>490.5</v>
+        <v>536.300048828125</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>34.139354705810497</v>
+        <v>34.558078765869098</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2207,19 +2215,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>466.199951171875</v>
+        <v>511.199951171875</v>
       </c>
       <c r="D41">
-        <v>469</v>
+        <v>514</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>532.60009765625</v>
       </c>
       <c r="F41">
-        <v>33.683048248291001</v>
+        <v>34.073905944824197</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,16 +2238,16 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>445</v>
+        <v>489.199951171875</v>
       </c>
       <c r="D42">
-        <v>447.699951171875</v>
+        <v>491.89990234375</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>33.225837707519503</v>
+        <v>33.608249664306598</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2253,19 +2261,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>424.10009765625</v>
+        <v>467.39990234375</v>
       </c>
       <c r="D43">
-        <v>426.800048828125</v>
+        <v>470.10009765625</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>488.300048828125</v>
       </c>
       <c r="F43">
-        <v>32.792587280273402</v>
+        <v>33.151687622070298</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2276,16 +2284,16 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>403.5</v>
+        <v>446</v>
       </c>
       <c r="D44">
-        <v>406.10009765625</v>
+        <v>448.60009765625</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>32.353919982910199</v>
+        <v>32.7265434265137</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2299,16 +2307,16 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>383.199951171875</v>
+        <v>424.800048828125</v>
       </c>
       <c r="D45">
-        <v>385.699951171875</v>
+        <v>427.300048828125</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>31.9175510406494</v>
+        <v>32.286590576171903</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2322,19 +2330,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>363.300048828125</v>
+        <v>403.89990234375</v>
       </c>
       <c r="D46">
-        <v>365.699951171875</v>
+        <v>406.39990234375</v>
       </c>
       <c r="E46">
-        <v>361.10009765625</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>31.5005493164063</v>
+        <v>31.8663845062256</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2345,16 +2353,16 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>343.699951171875</v>
+        <v>383.39990234375</v>
       </c>
       <c r="D47">
-        <v>346.10009765625</v>
+        <v>385.800048828125</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>31.0815620422363</v>
+        <v>31.459321975708001</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2368,16 +2376,16 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>324.5</v>
+        <v>363.199951171875</v>
       </c>
       <c r="D48">
-        <v>326.800048828125</v>
+        <v>365.5</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>30.666578292846701</v>
+        <v>31.048099517822301</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2391,16 +2399,16 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>305.60009765625</v>
+        <v>343.300048828125</v>
       </c>
       <c r="D49">
-        <v>307.89990234375</v>
+        <v>345.60009765625</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>30.2466316223144</v>
+        <v>30.639627456665</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2414,16 +2422,16 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>287.199951171875</v>
+        <v>323.89990234375</v>
       </c>
       <c r="D50">
-        <v>289.39990234375</v>
+        <v>326.10009765625</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>29.836919784545898</v>
+        <v>30.2500400543213</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2437,16 +2445,16 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>269.300048828125</v>
+        <v>304.800048828125</v>
       </c>
       <c r="D51">
-        <v>271.39990234375</v>
+        <v>307</v>
       </c>
       <c r="E51">
-        <v>258.60009765625</v>
+        <v>345.699951171875</v>
       </c>
       <c r="F51">
-        <v>29.441879272460898</v>
+        <v>29.852756500244102</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2460,16 +2468,16 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>251.69999694824199</v>
+        <v>286.199951171875</v>
       </c>
       <c r="D52">
-        <v>253.80000305175801</v>
+        <v>288.300048828125</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>29.0298347473144</v>
+        <v>29.463710784912099</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2483,19 +2491,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>234.69999694824199</v>
+        <v>268.10009765625</v>
       </c>
       <c r="D53">
-        <v>236.60000610351599</v>
+        <v>270.10009765625</v>
       </c>
       <c r="E53">
-        <v>223.5</v>
+        <v>300</v>
       </c>
       <c r="F53">
-        <v>28.624254226684599</v>
+        <v>29.087381362915</v>
       </c>
       <c r="G53">
-        <v>12319</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2506,16 +2514,16 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>218.19999694824199</v>
+        <v>250.30000305175801</v>
       </c>
       <c r="D54">
-        <v>220</v>
+        <v>252.30000305175801</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>28.2295112609863</v>
+        <v>28.6904907226563</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2529,19 +2537,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>202.30000305175801</v>
+        <v>233.19999694824199</v>
       </c>
       <c r="D55">
-        <v>203.89999389648401</v>
+        <v>235</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>27.843553543090799</v>
+        <v>28.3157634735107</v>
       </c>
       <c r="G55">
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,19 +2560,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>186.89999389648401</v>
+        <v>216.5</v>
       </c>
       <c r="D56">
-        <v>188.39999389648401</v>
+        <v>218.30000305175801</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>27.455162048339801</v>
+        <v>27.9397487640381</v>
       </c>
       <c r="G56">
-        <v>422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2575,19 +2583,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>172</v>
+        <v>200.60000610351599</v>
       </c>
       <c r="D57">
-        <v>173.39999389648401</v>
+        <v>202.10000610351599</v>
       </c>
       <c r="E57">
-        <v>159</v>
+        <v>207.80000305175801</v>
       </c>
       <c r="F57">
-        <v>27.06130027771</v>
+        <v>27.586675643920898</v>
       </c>
       <c r="G57">
-        <v>14643</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2598,19 +2606,19 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>157.69999694824199</v>
+        <v>185</v>
       </c>
       <c r="D58">
-        <v>159</v>
+        <v>186.5</v>
       </c>
       <c r="E58">
-        <v>147.60000610351599</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>26.6707038879394</v>
+        <v>27.210386276245099</v>
       </c>
       <c r="G58">
-        <v>382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2621,19 +2629,19 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>144</v>
+        <v>170.10000610351599</v>
       </c>
       <c r="D59">
-        <v>145.30000305175801</v>
+        <v>171.5</v>
       </c>
       <c r="E59">
-        <v>137.30000305175801</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>26.2887878417969</v>
+        <v>26.850685119628899</v>
       </c>
       <c r="G59">
-        <v>11470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,19 +2652,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>131.10000610351599</v>
+        <v>155.89999389648401</v>
       </c>
       <c r="D60">
-        <v>132.30000305175801</v>
+        <v>157.10000610351599</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>161.89999389648401</v>
       </c>
       <c r="F60">
-        <v>25.929389953613299</v>
+        <v>26.4990940093994</v>
       </c>
       <c r="G60">
-        <v>515</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2667,19 +2675,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>118.699996948242</v>
+        <v>142.30000305175801</v>
       </c>
       <c r="D61">
-        <v>119.900009155273</v>
+        <v>143.39999389648401</v>
       </c>
       <c r="E61">
-        <v>110.900009155273</v>
+        <v>142.60000610351599</v>
       </c>
       <c r="F61">
-        <v>25.5570259094238</v>
+        <v>26.152667999267599</v>
       </c>
       <c r="G61">
-        <v>1419</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,19 +2698,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>107.10000610351599</v>
+        <v>129.39999389648401</v>
       </c>
       <c r="D62">
-        <v>108.300003051758</v>
+        <v>130.39999389648401</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>142.30000305175801</v>
       </c>
       <c r="F62">
-        <v>25.211061477661101</v>
+        <v>25.817274093627901</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,19 +2721,19 @@
         <v>68</v>
       </c>
       <c r="C63">
-        <v>96.199996948242202</v>
+        <v>117.10000610351599</v>
       </c>
       <c r="D63">
-        <v>97.300003051757798</v>
+        <v>118.10000610351599</v>
       </c>
       <c r="E63">
-        <v>90.400009155273395</v>
+        <v>117.300003051758</v>
       </c>
       <c r="F63">
-        <v>24.8647956848144</v>
+        <v>25.4820747375488</v>
       </c>
       <c r="G63">
-        <v>15247</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,19 +2744,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>86.100006103515597</v>
+        <v>105.60000610351599</v>
       </c>
       <c r="D64">
-        <v>87.100006103515597</v>
+        <v>106.5</v>
       </c>
       <c r="E64">
-        <v>81.900009155273395</v>
+        <v>105.800003051758</v>
       </c>
       <c r="F64">
-        <v>24.543272018432599</v>
+        <v>25.162235260009801</v>
       </c>
       <c r="G64">
-        <v>1045</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2759,19 +2767,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>76.600006103515597</v>
+        <v>94.900009155273395</v>
       </c>
       <c r="D65">
-        <v>77.600006103515597</v>
+        <v>95.600006103515597</v>
       </c>
       <c r="E65">
-        <v>68.400009155273395</v>
+        <v>95</v>
       </c>
       <c r="F65">
-        <v>24.220699310302699</v>
+        <v>24.85768699646</v>
       </c>
       <c r="G65">
-        <v>14057</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,19 +2790,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>67.800003051757798</v>
+        <v>84.699996948242202</v>
       </c>
       <c r="D66">
-        <v>68.800003051757798</v>
+        <v>85.5</v>
       </c>
       <c r="E66">
-        <v>61.900009155273402</v>
+        <v>89.100006103515597</v>
       </c>
       <c r="F66">
-        <v>23.906343460083001</v>
+        <v>24.547233581543001</v>
       </c>
       <c r="G66">
-        <v>468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2805,19 +2813,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>59.800003051757798</v>
+        <v>75.5</v>
       </c>
       <c r="D67">
-        <v>60.699996948242202</v>
+        <v>76.100006103515597</v>
       </c>
       <c r="E67">
-        <v>53.300003051757798</v>
+        <v>74.699996948242202</v>
       </c>
       <c r="F67">
-        <v>23.6115322113037</v>
+        <v>24.270530700683601</v>
       </c>
       <c r="G67">
-        <v>2264</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,19 +2836,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>52.5</v>
+        <v>66.800003051757798</v>
       </c>
       <c r="D68">
-        <v>53.300003051757798</v>
+        <v>67.5</v>
       </c>
       <c r="E68">
-        <v>50.5</v>
+        <v>72.5</v>
       </c>
       <c r="F68">
-        <v>23.3303127288818</v>
+        <v>23.991792678833001</v>
       </c>
       <c r="G68">
-        <v>864</v>
+        <v>8516</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2851,19 +2859,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>45.900009155273402</v>
+        <v>59</v>
       </c>
       <c r="D69">
-        <v>46.600006103515597</v>
+        <v>59.600006103515597</v>
       </c>
       <c r="E69">
-        <v>45.800003051757798</v>
+        <v>58.199996948242202</v>
       </c>
       <c r="F69">
-        <v>23.0673732757568</v>
+        <v>23.742141723632798</v>
       </c>
       <c r="G69">
-        <v>15055</v>
+        <v>11839</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2874,19 +2882,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>39.900009155273402</v>
+        <v>51.699996948242202</v>
       </c>
       <c r="D70">
-        <v>40.600006103515597</v>
+        <v>52.400009155273402</v>
       </c>
       <c r="E70">
-        <v>37.100006103515597</v>
+        <v>65.800003051757798</v>
       </c>
       <c r="F70">
-        <v>22.817634582519499</v>
+        <v>23.486118316650401</v>
       </c>
       <c r="G70">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,19 +2905,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>34.600006103515597</v>
+        <v>45.199996948242202</v>
       </c>
       <c r="D71">
-        <v>35.199996948242202</v>
+        <v>45.900009155273402</v>
       </c>
       <c r="E71">
-        <v>35.300003051757798</v>
+        <v>45.300003051757798</v>
       </c>
       <c r="F71">
-        <v>22.592555999755898</v>
+        <v>23.261066436767599</v>
       </c>
       <c r="G71">
-        <v>1302</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2920,19 +2928,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>29.800003051757798</v>
+        <v>39.300003051757798</v>
       </c>
       <c r="D72">
-        <v>30.3999938964844</v>
+        <v>40</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>44.400009155273402</v>
       </c>
       <c r="F72">
-        <v>22.368360519409201</v>
+        <v>23.0355529785156</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2943,19 +2951,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>25.6000061035156</v>
+        <v>34.300003051757798</v>
       </c>
       <c r="D73">
-        <v>26.199996948242202</v>
+        <v>34.800003051757798</v>
       </c>
       <c r="E73">
-        <v>24</v>
+        <v>34.100006103515597</v>
       </c>
       <c r="F73">
-        <v>22.177553176879901</v>
+        <v>22.8712482452393</v>
       </c>
       <c r="G73">
-        <v>6802</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2966,19 +2974,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>22</v>
+        <v>29.6000061035156</v>
       </c>
       <c r="D74">
-        <v>22.5</v>
+        <v>30.1000061035156</v>
       </c>
       <c r="E74">
-        <v>23</v>
+        <v>38.400009155273402</v>
       </c>
       <c r="F74">
-        <v>22.0115566253662</v>
+        <v>22.678918838501001</v>
       </c>
       <c r="G74">
-        <v>1300</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2989,19 +2997,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>18.699996948242202</v>
+        <v>25.6000061035156</v>
       </c>
       <c r="D75">
-        <v>19.300003051757798</v>
+        <v>26.099990844726602</v>
       </c>
       <c r="E75">
-        <v>19.6000061035156</v>
+        <v>25.5</v>
       </c>
       <c r="F75">
-        <v>21.844434738159201</v>
+        <v>22.548091888427699</v>
       </c>
       <c r="G75">
-        <v>550</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3012,19 +3020,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>15.8999996185303</v>
+        <v>22</v>
       </c>
       <c r="D76">
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="E76">
-        <v>16.6000061035156</v>
+        <v>21.699996948242202</v>
       </c>
       <c r="F76">
-        <v>21.705478668212901</v>
+        <v>22.40771484375</v>
       </c>
       <c r="G76">
-        <v>177</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3035,19 +3043,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>13.6000003814697</v>
+        <v>18.8999938964844</v>
       </c>
       <c r="D77">
-        <v>14.1000003814697</v>
+        <v>19.5</v>
       </c>
       <c r="E77">
-        <v>11.699999809265099</v>
+        <v>18.8999938964844</v>
       </c>
       <c r="F77">
-        <v>21.6053581237793</v>
+        <v>22.315649032592798</v>
       </c>
       <c r="G77">
-        <v>3606</v>
+        <v>8233</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3058,19 +3066,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11.5</v>
+        <v>16.300003051757798</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>16.699996948242202</v>
       </c>
       <c r="E78">
-        <v>10.1000003814697</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>21.490104675293001</v>
+        <v>22.226190567016602</v>
       </c>
       <c r="G78">
-        <v>539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3081,19 +3089,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>9.8000001907348597</v>
+        <v>14</v>
       </c>
       <c r="D79">
-        <v>10.199999809265099</v>
+        <v>14.3999996185303</v>
       </c>
       <c r="E79">
-        <v>9.3999996185302699</v>
+        <v>14.199999809265099</v>
       </c>
       <c r="F79">
-        <v>21.417253494262699</v>
+        <v>22.1671543121338</v>
       </c>
       <c r="G79">
-        <v>721</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3104,19 +3112,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>8.3000001907348597</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>8.8000001907348597</v>
+        <v>12.3999996185303</v>
       </c>
       <c r="E80">
-        <v>7.6000003814697301</v>
+        <v>12.6000003814697</v>
       </c>
       <c r="F80">
-        <v>21.381088256835898</v>
+        <v>22.121576309204102</v>
       </c>
       <c r="G80">
-        <v>505</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3127,19 +3135,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>10.300000190734901</v>
       </c>
       <c r="D81">
-        <v>7.5</v>
+        <v>10.800000190734901</v>
       </c>
       <c r="E81">
-        <v>6.8000001907348597</v>
+        <v>13.8999996185303</v>
       </c>
       <c r="F81">
-        <v>21.3256130218506</v>
+        <v>22.122329711914102</v>
       </c>
       <c r="G81">
-        <v>992</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3150,19 +3158,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>5.9000005722045898</v>
+        <v>8.8999996185302699</v>
       </c>
       <c r="D82">
-        <v>6.4000005722045898</v>
+        <v>9.3000001907348597</v>
       </c>
       <c r="E82">
-        <v>5.1999998092651403</v>
+        <v>9.6999998092651403</v>
       </c>
       <c r="F82">
-        <v>21.2862358093262</v>
+        <v>22.125780105590799</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3173,19 +3181,19 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>5.1000003814697301</v>
+        <v>7.6000003814697301</v>
       </c>
       <c r="D83">
-        <v>5.5</v>
+        <v>8.1000003814697301</v>
       </c>
       <c r="E83">
-        <v>5.4000005722045898</v>
+        <v>8.1000003814697301</v>
       </c>
       <c r="F83">
-        <v>21.3226432800293</v>
+        <v>22.1364345550537</v>
       </c>
       <c r="G83">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3196,19 +3204,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>4.3000001907348597</v>
+        <v>6.6000003814697301</v>
       </c>
       <c r="D84">
-        <v>4.8000001907348597</v>
+        <v>7.0999994277954102</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>8.6000003814697301</v>
       </c>
       <c r="F84">
-        <v>21.3480529785156</v>
+        <v>22.2101535797119</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3219,19 +3227,19 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>3.6999998092651398</v>
+        <v>5.6999998092651403</v>
       </c>
       <c r="D85">
-        <v>4.1000003814697301</v>
+        <v>6.1000003814697301</v>
       </c>
       <c r="E85">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F85">
-        <v>21.374353408813501</v>
+        <v>22.231674194335898</v>
       </c>
       <c r="G85">
-        <v>3300</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3242,19 +3250,19 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>3.1000003814697301</v>
+        <v>5</v>
       </c>
       <c r="D86">
-        <v>3.5</v>
+        <v>5.4000005722045898</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>5.4000005722045898</v>
       </c>
       <c r="F86">
-        <v>21.362514495849599</v>
+        <v>22.353807449340799</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,19 +3273,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>2.79999923706055</v>
+        <v>4.3999996185302699</v>
       </c>
       <c r="D87">
-        <v>3.1000003814697301</v>
+        <v>4.8000001907348597</v>
       </c>
       <c r="E87">
-        <v>2.6000003814697301</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>21.541294097900401</v>
+        <v>22.489589691162099</v>
       </c>
       <c r="G87">
-        <v>122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3288,16 +3296,16 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>2.3000001907348602</v>
+        <v>3.9000005722045898</v>
       </c>
       <c r="D88">
-        <v>2.8000001907348602</v>
+        <v>4.1999998092651403</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>21.606653213501001</v>
+        <v>22.606895446777301</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3311,19 +3319,19 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>3.4000005722045898</v>
       </c>
       <c r="D89">
-        <v>2.3000001907348602</v>
+        <v>3.6999998092651398</v>
       </c>
       <c r="E89">
-        <v>2.1000003814697301</v>
+        <v>4.3000001907348597</v>
       </c>
       <c r="F89">
-        <v>21.597063064575199</v>
+        <v>22.706861495971701</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>603</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3334,16 +3342,16 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1.80000019073486</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>2.0999994277954102</v>
+        <v>3.3000001907348602</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>21.813787460327099</v>
+        <v>22.850643157958999</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3357,19 +3365,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1.5</v>
+        <v>2.5999994277954102</v>
       </c>
       <c r="D91">
-        <v>1.8999996185302701</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F91">
-        <v>21.906429290771499</v>
+        <v>22.997947692871101</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3380,16 +3388,16 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>1.30000019073486</v>
+        <v>2.4000005722045898</v>
       </c>
       <c r="D92">
-        <v>1.69999980926514</v>
+        <v>2.6000003814697301</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>22.0338020324707</v>
+        <v>23.159774780273398</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3403,19 +3411,19 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>1.19999980926514</v>
+        <v>2.0999994277954102</v>
       </c>
       <c r="D93">
-        <v>1.5</v>
+        <v>2.4000005722045898</v>
       </c>
       <c r="E93">
-        <v>1.3999996185302701</v>
+        <v>2.3000001907348602</v>
       </c>
       <c r="F93">
-        <v>22.2158393859863</v>
+        <v>23.340518951416001</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3426,16 +3434,16 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>1.8999996185302701</v>
       </c>
       <c r="D94">
-        <v>1.30000019073486</v>
+        <v>2.1999998092651398</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>22.2388801574707</v>
+        <v>23.564435958862301</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3449,19 +3457,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>0.89999997615814198</v>
+        <v>1.69999980926514</v>
       </c>
       <c r="D95">
-        <v>1.19999980926514</v>
+        <v>1.8999996185302701</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1.8999996185302701</v>
       </c>
       <c r="F95">
-        <v>22.45703125</v>
+        <v>23.658552169799801</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3472,16 +3480,16 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>0.80000001192092896</v>
+        <v>1.5</v>
       </c>
       <c r="D96">
-        <v>1.0999994277954099</v>
+        <v>1.80000019073486</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>22.639135360717798</v>
+        <v>23.888343811035199</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3495,16 +3503,16 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>0.69999998807907104</v>
+        <v>1.30000019073486</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>1.6000003814697299</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>22.792854309081999</v>
+        <v>23.981489181518601</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3518,16 +3526,16 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>0.60000002384185802</v>
+        <v>1.19999980926514</v>
       </c>
       <c r="D98">
-        <v>0.89999997615814198</v>
+        <v>1.5</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>22.905544281005898</v>
+        <v>24.2516689300537</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3541,16 +3549,16 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>0.60000002384185802</v>
+        <v>1.0999994277954099</v>
       </c>
       <c r="D99">
-        <v>0.89999997615814198</v>
+        <v>1.3999996185302701</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>23.3394565582275</v>
+        <v>24.496089935302699</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3564,16 +3572,16 @@
         <v>105</v>
       </c>
       <c r="C100">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>0.80000001192092896</v>
+        <v>1.30000019073486</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>23.396192550659201</v>
+        <v>24.717466354370099</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3587,19 +3595,19 @@
         <v>106</v>
       </c>
       <c r="C101">
-        <v>0.39999997615814198</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="D101">
-        <v>0.80000001192092896</v>
+        <v>1.19999980926514</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1.1000003814697299</v>
       </c>
       <c r="F101">
-        <v>23.6137199401856</v>
+        <v>24.765478134155298</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3610,19 +3618,19 @@
         <v>107</v>
       </c>
       <c r="C102">
-        <v>0.40000003576278698</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="D102">
-        <v>0.69999998807907104</v>
+        <v>1.1000003814697299</v>
       </c>
       <c r="E102">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>23.805280685424801</v>
+        <v>25.074504852294901</v>
       </c>
       <c r="G102">
-        <v>375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3633,16 +3641,16 @@
         <v>108</v>
       </c>
       <c r="C103">
-        <v>0.39999997615814198</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="D103">
-        <v>0.69999998807907104</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>24.214097976684599</v>
+        <v>25.2005805969238</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3656,16 +3664,16 @@
         <v>109</v>
       </c>
       <c r="C104">
-        <v>0.30000001192092901</v>
+        <v>0.60000002384185802</v>
       </c>
       <c r="D104">
-        <v>0.60000002384185802</v>
+        <v>0.89999997615814198</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>24.114128112793001</v>
+        <v>25.286130905151399</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3679,16 +3687,16 @@
         <v>110</v>
       </c>
       <c r="C105">
-        <v>0.30000001192092901</v>
+        <v>0.60000002384185802</v>
       </c>
       <c r="D105">
-        <v>0.60000002384185802</v>
+        <v>0.89999997615814198</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>24.510456085205099</v>
+        <v>25.722518920898398</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3702,16 +3710,16 @@
         <v>111</v>
       </c>
       <c r="C106">
-        <v>0.30000001192092901</v>
+        <v>0.60000002384185802</v>
       </c>
       <c r="D106">
-        <v>0.60000002384185802</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>24.903955459594702</v>
+        <v>25.9573249816894</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3725,19 +3733,19 @@
         <v>112</v>
       </c>
       <c r="C107">
-        <v>0.40000003576278698</v>
+        <v>0.5</v>
       </c>
       <c r="D107">
-        <v>0.5</v>
+        <v>0.60000002384185802</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.60000002384185802</v>
       </c>
       <c r="F107">
-        <v>25.294582366943398</v>
+        <v>25.713222503662099</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3748,16 +3756,16 @@
         <v>113</v>
       </c>
       <c r="C108">
-        <v>0.19999998807907099</v>
+        <v>0.39999997615814198</v>
       </c>
       <c r="D108">
-        <v>0.5</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>25.054975509643601</v>
+        <v>26.1275730133057</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3771,19 +3779,19 @@
         <v>114</v>
       </c>
       <c r="C109">
-        <v>0.19999998807907099</v>
+        <v>0.40000003576278698</v>
       </c>
       <c r="D109">
-        <v>0.5</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="E109">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>25.429702758789102</v>
+        <v>26.541200637817401</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3797,13 +3805,13 @@
         <v>0.30000001192092901</v>
       </c>
       <c r="D110">
-        <v>0.5</v>
+        <v>0.60000002384185802</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>26.141422271728501</v>
+        <v>26.404556274414102</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3817,16 +3825,16 @@
         <v>116</v>
       </c>
       <c r="C111">
-        <v>9.9999964237213093E-2</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="D111">
-        <v>0.5</v>
+        <v>0.60000002384185802</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>25.798067092895501</v>
+        <v>26.8021144866943</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3840,16 +3848,16 @@
         <v>117</v>
       </c>
       <c r="C112">
-        <v>0.10000002384185799</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="D112">
-        <v>0.40000003576278698</v>
+        <v>0.60000002384185802</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>25.726955413818398</v>
+        <v>27.1989135742188</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3863,16 +3871,16 @@
         <v>118</v>
       </c>
       <c r="C113">
-        <v>0.10000002384185799</v>
+        <v>0.19999998807907099</v>
       </c>
       <c r="D113">
-        <v>0.40000003576278698</v>
+        <v>0.5</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>26.082963943481399</v>
+        <v>26.922908782958999</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3886,16 +3894,16 @@
         <v>119</v>
       </c>
       <c r="C114">
-        <v>0.10000002384185799</v>
+        <v>0.19999998807907099</v>
       </c>
       <c r="D114">
-        <v>0.40000003576278698</v>
+        <v>0.5</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>26.439405441284201</v>
+        <v>27.307001113891602</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3909,19 +3917,19 @@
         <v>120</v>
       </c>
       <c r="C115">
-        <v>9.9999964237213093E-2</v>
+        <v>0.19999998807907099</v>
       </c>
       <c r="D115">
-        <v>0.39999997615814198</v>
+        <v>0.5</v>
       </c>
       <c r="E115">
-        <v>0.19999998807907099</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>26.791999816894499</v>
+        <v>27.686552047729499</v>
       </c>
       <c r="G115">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3935,13 +3943,13 @@
         <v>0.10000002384185799</v>
       </c>
       <c r="D116">
-        <v>0.40000003576278698</v>
+        <v>0.5</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>27.142864227294901</v>
+        <v>27.660570144653299</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3958,13 +3966,13 @@
         <v>0.10000002384185799</v>
       </c>
       <c r="D117">
-        <v>0.19999998807907099</v>
+        <v>0.39999997615814198</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>26.298763275146499</v>
+        <v>27.567726135253899</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3978,7 +3986,7 @@
         <v>123</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.10000002384185799</v>
       </c>
       <c r="D118">
         <v>0.40000003576278698</v>
@@ -3987,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>29.4301147460938</v>
+        <v>28.2928657531738</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4001,16 +4009,16 @@
         <v>124</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>9.9999964237213093E-2</v>
       </c>
       <c r="D119">
-        <v>0.30000001192092901</v>
+        <v>0.40000003576278698</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>29.335800170898398</v>
+        <v>29.0076904296875</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4024,18 +4032,64 @@
         <v>125</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.10000002384185799</v>
       </c>
       <c r="D120">
+        <v>0.40000003576278698</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>29.71413230896</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5000</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121">
+        <v>0.10000002384185799</v>
+      </c>
+      <c r="D121">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>30.016279220581101</v>
-      </c>
-      <c r="G120">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>29.822483062744102</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5050</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0.30000001192092901</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>31.611169815063501</v>
+      </c>
+      <c r="G122">
         <v>0</v>
       </c>
     </row>
